--- a/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_subject_matter_simpl-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_subject_matter_simpl-PC.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:CG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,110 +365,420 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>archaeology</t>
+          <t>airforce</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>art</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>belief_and_identity</t>
+          <t>aviation</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>buildings</t>
+          <t>bicycles</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>communications</t>
+          <t>boats_and_ships</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>food_and_drink</t>
+          <t>bunker</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>industry_and_manufacture</t>
+          <t>buses_and_trams</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>leisure_and_sport</t>
+          <t>bygones</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>local_histories</t>
+          <t>canals</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medicine_and_health</t>
+          <t>cars_and_motorbikes</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>castles_and_forts</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ceramics</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>church_treasuries</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>civic</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>clocks_and_watches</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>computing_and_gaming</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>costume_and_textiles</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>crafts</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>cricket</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>dinosaurs</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>encyclopaedic</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ethnic_group</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>event_or_site</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>explorer</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>fairgrounds_and_amusements</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>farming</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>film_cinema_and_tv</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>fine_and_decorative_arts</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>fire</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>fishing</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>forges</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>fossils</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>freemasons</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>gas_and_electricity</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>geology</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>greek_and_egyptian</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>herbaria_and_gardening</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>houses</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>industrial_life</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>lighthouses</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>literary</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>medieval</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>military</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>mining_and_quarrying</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>mixed</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>natural_world</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>navy</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>personality</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>rural_industry</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>science_and_technology</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>sea_and_seafaring</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>services</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>transport</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>utilities</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>war_and_conflict</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>palace</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>penal</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>photography</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>police</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>political</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>potteries</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>prehistory</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>print</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>professional_association</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radio</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>regiment</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>religion</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>religious</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>religious_buildings</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>rnli</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>roman</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>rugby_and_football</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>rural_life</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>scientific</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>shops</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>steam_and_engines</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>textiles</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>toys_and_models</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>trains_and_railways</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>water_and_waste</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>watermills</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>windmills</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>zoology</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>ROW_TOT</t>
         </is>
@@ -481,70 +791,256 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.748</v>
+        <v>0.155</v>
       </c>
       <c r="C2">
-        <v>2.817</v>
+        <v>0.248</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0.031</v>
       </c>
       <c r="E2">
-        <v>2.542</v>
+        <v>0.031</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0.248</v>
       </c>
       <c r="G2">
-        <v>0.025</v>
+        <v>0.062</v>
       </c>
       <c r="H2">
-        <v>1.171</v>
+        <v>0.031</v>
       </c>
       <c r="I2">
-        <v>0.125</v>
+        <v>0.062</v>
       </c>
       <c r="J2">
-        <v>7.926</v>
+        <v>0.093</v>
       </c>
       <c r="K2">
-        <v>0.025</v>
+        <v>0.031</v>
       </c>
       <c r="L2">
-        <v>3.365</v>
+        <v>0.465</v>
       </c>
       <c r="M2">
-        <v>0.548</v>
+        <v>0.062</v>
       </c>
       <c r="N2">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.271</v>
+        <v>0.217</v>
       </c>
       <c r="P2">
-        <v>0.798</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.598</v>
+        <v>0.186</v>
       </c>
       <c r="S2">
-        <v>0.224</v>
+        <v>0.031</v>
       </c>
       <c r="T2">
-        <v>0.623</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.171</v>
+        <v>0.031</v>
       </c>
       <c r="W2">
-        <v>24.724</v>
+        <v>2.818</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.217</v>
+      </c>
+      <c r="Z2">
+        <v>0.062</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.341</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>3.066</v>
+      </c>
+      <c r="AE2">
+        <v>0.093</v>
+      </c>
+      <c r="AF2">
+        <v>0.031</v>
+      </c>
+      <c r="AG2">
+        <v>0.031</v>
+      </c>
+      <c r="AH2">
+        <v>0.031</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0.093</v>
+      </c>
+      <c r="AL2">
+        <v>0.062</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0.093</v>
+      </c>
+      <c r="AO2">
+        <v>0.031</v>
+      </c>
+      <c r="AP2">
+        <v>2.199</v>
+      </c>
+      <c r="AQ2">
+        <v>0.155</v>
+      </c>
+      <c r="AR2">
+        <v>0.031</v>
+      </c>
+      <c r="AS2">
+        <v>0.712</v>
+      </c>
+      <c r="AT2">
+        <v>0.031</v>
+      </c>
+      <c r="AU2">
+        <v>0.155</v>
+      </c>
+      <c r="AV2">
+        <v>0.124</v>
+      </c>
+      <c r="AW2">
+        <v>0.186</v>
+      </c>
+      <c r="AX2">
+        <v>0.31</v>
+      </c>
+      <c r="AY2">
+        <v>1.363</v>
+      </c>
+      <c r="AZ2">
+        <v>0.062</v>
+      </c>
+      <c r="BA2">
+        <v>0.248</v>
+      </c>
+      <c r="BB2">
+        <v>2.787</v>
+      </c>
+      <c r="BC2">
+        <v>0.031</v>
+      </c>
+      <c r="BD2">
+        <v>0.248</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0.155</v>
+      </c>
+      <c r="BG2">
+        <v>0.248</v>
+      </c>
+      <c r="BH2">
+        <v>0.062</v>
+      </c>
+      <c r="BI2">
+        <v>0.124</v>
+      </c>
+      <c r="BJ2">
+        <v>0.155</v>
+      </c>
+      <c r="BK2">
+        <v>0.031</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0.248</v>
+      </c>
+      <c r="BO2">
+        <v>0.031</v>
+      </c>
+      <c r="BP2">
+        <v>0.062</v>
+      </c>
+      <c r="BQ2">
+        <v>0.093</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0.465</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0.186</v>
+      </c>
+      <c r="BV2">
+        <v>0.062</v>
+      </c>
+      <c r="BW2">
+        <v>0.093</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0.031</v>
+      </c>
+      <c r="BZ2">
+        <v>0.403</v>
+      </c>
+      <c r="CA2">
+        <v>0.124</v>
+      </c>
+      <c r="CB2">
+        <v>0.496</v>
+      </c>
+      <c r="CC2">
+        <v>0.217</v>
+      </c>
+      <c r="CD2">
+        <v>0.217</v>
+      </c>
+      <c r="CE2">
+        <v>0.155</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>21.253</v>
       </c>
     </row>
     <row r="3">
@@ -554,70 +1050,256 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.57</v>
+        <v>1.982</v>
       </c>
       <c r="C3">
-        <v>3.589</v>
+        <v>0.403</v>
       </c>
       <c r="D3">
-        <v>2.368</v>
+        <v>0.836</v>
       </c>
       <c r="E3">
-        <v>12.388</v>
+        <v>0.186</v>
       </c>
       <c r="F3">
-        <v>0.349</v>
+        <v>1.394</v>
       </c>
       <c r="G3">
-        <v>0.573</v>
+        <v>0.248</v>
       </c>
       <c r="H3">
-        <v>3.265</v>
+        <v>0.496</v>
       </c>
       <c r="I3">
-        <v>3.041</v>
+        <v>0.403</v>
       </c>
       <c r="J3">
-        <v>12.861</v>
+        <v>0.372</v>
       </c>
       <c r="K3">
-        <v>0.897</v>
+        <v>2.199</v>
       </c>
       <c r="L3">
-        <v>1.296</v>
+        <v>1.641</v>
       </c>
       <c r="M3">
-        <v>0.773</v>
+        <v>0.526</v>
       </c>
       <c r="N3">
-        <v>1.371</v>
+        <v>0.217</v>
       </c>
       <c r="O3">
-        <v>3.365</v>
+        <v>0.062</v>
       </c>
       <c r="P3">
-        <v>3.39</v>
+        <v>0.186</v>
       </c>
       <c r="Q3">
-        <v>0.324</v>
+        <v>0.217</v>
       </c>
       <c r="R3">
-        <v>2.243</v>
+        <v>0.496</v>
       </c>
       <c r="S3">
-        <v>0.847</v>
+        <v>0.186</v>
       </c>
       <c r="T3">
-        <v>7.029</v>
+        <v>0.279</v>
       </c>
       <c r="U3">
-        <v>0.698</v>
+        <v>0.186</v>
       </c>
       <c r="V3">
-        <v>7.752</v>
+        <v>0.124</v>
       </c>
       <c r="W3">
-        <v>69.989</v>
+        <v>0.65</v>
+      </c>
+      <c r="X3">
+        <v>0.681</v>
+      </c>
+      <c r="Y3">
+        <v>0.867</v>
+      </c>
+      <c r="Z3">
+        <v>0.155</v>
+      </c>
+      <c r="AA3">
+        <v>0.279</v>
+      </c>
+      <c r="AB3">
+        <v>1.548</v>
+      </c>
+      <c r="AC3">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="AD3">
+        <v>1.982</v>
+      </c>
+      <c r="AE3">
+        <v>0.341</v>
+      </c>
+      <c r="AF3">
+        <v>0.31</v>
+      </c>
+      <c r="AG3">
+        <v>0.155</v>
+      </c>
+      <c r="AH3">
+        <v>0.093</v>
+      </c>
+      <c r="AI3">
+        <v>0.279</v>
+      </c>
+      <c r="AJ3">
+        <v>0.155</v>
+      </c>
+      <c r="AK3">
+        <v>0.248</v>
+      </c>
+      <c r="AL3">
+        <v>0.186</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0.155</v>
+      </c>
+      <c r="AO3">
+        <v>0.496</v>
+      </c>
+      <c r="AP3">
+        <v>13.657</v>
+      </c>
+      <c r="AQ3">
+        <v>0.217</v>
+      </c>
+      <c r="AR3">
+        <v>0.217</v>
+      </c>
+      <c r="AS3">
+        <v>1.703</v>
+      </c>
+      <c r="AT3">
+        <v>0.155</v>
+      </c>
+      <c r="AU3">
+        <v>0.217</v>
+      </c>
+      <c r="AV3">
+        <v>0.31</v>
+      </c>
+      <c r="AW3">
+        <v>1.177</v>
+      </c>
+      <c r="AX3">
+        <v>1.239</v>
+      </c>
+      <c r="AY3">
+        <v>2.509</v>
+      </c>
+      <c r="AZ3">
+        <v>0.712</v>
+      </c>
+      <c r="BA3">
+        <v>0.217</v>
+      </c>
+      <c r="BB3">
+        <v>7.68</v>
+      </c>
+      <c r="BC3">
+        <v>0.186</v>
+      </c>
+      <c r="BD3">
+        <v>0.186</v>
+      </c>
+      <c r="BE3">
+        <v>0.31</v>
+      </c>
+      <c r="BF3">
+        <v>0.496</v>
+      </c>
+      <c r="BG3">
+        <v>0.372</v>
+      </c>
+      <c r="BH3">
+        <v>0.155</v>
+      </c>
+      <c r="BI3">
+        <v>0.217</v>
+      </c>
+      <c r="BJ3">
+        <v>0.65</v>
+      </c>
+      <c r="BK3">
+        <v>0.155</v>
+      </c>
+      <c r="BL3">
+        <v>0.341</v>
+      </c>
+      <c r="BM3">
+        <v>0.186</v>
+      </c>
+      <c r="BN3">
+        <v>3.809</v>
+      </c>
+      <c r="BO3">
+        <v>0.867</v>
+      </c>
+      <c r="BP3">
+        <v>0.434</v>
+      </c>
+      <c r="BQ3">
+        <v>1.115</v>
+      </c>
+      <c r="BR3">
+        <v>0.155</v>
+      </c>
+      <c r="BS3">
+        <v>0.743</v>
+      </c>
+      <c r="BT3">
+        <v>0.681</v>
+      </c>
+      <c r="BU3">
+        <v>0.836</v>
+      </c>
+      <c r="BV3">
+        <v>0.341</v>
+      </c>
+      <c r="BW3">
+        <v>0.31</v>
+      </c>
+      <c r="BX3">
+        <v>0.186</v>
+      </c>
+      <c r="BY3">
+        <v>0.31</v>
+      </c>
+      <c r="BZ3">
+        <v>0.96</v>
+      </c>
+      <c r="CA3">
+        <v>1.61</v>
+      </c>
+      <c r="CB3">
+        <v>3.84</v>
+      </c>
+      <c r="CC3">
+        <v>0.712</v>
+      </c>
+      <c r="CD3">
+        <v>0.712</v>
+      </c>
+      <c r="CE3">
+        <v>0.434</v>
+      </c>
+      <c r="CF3">
+        <v>0.031</v>
+      </c>
+      <c r="CG3">
+        <v>73.126</v>
       </c>
     </row>
     <row r="4">
@@ -627,16 +1309,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.122</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -645,37 +1327,37 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.299</v>
+        <v>0.031</v>
       </c>
       <c r="M4">
-        <v>0.399</v>
+        <v>0.062</v>
       </c>
       <c r="N4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -684,13 +1366,199 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="V4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.644</v>
+        <v>0.217</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0.031</v>
+      </c>
+      <c r="AD4">
+        <v>0.991</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0.155</v>
+      </c>
+      <c r="AL4">
+        <v>0.031</v>
+      </c>
+      <c r="AM4">
+        <v>0.155</v>
+      </c>
+      <c r="AN4">
+        <v>0.093</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0.062</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0.031</v>
+      </c>
+      <c r="AT4">
+        <v>0.031</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0.279</v>
+      </c>
+      <c r="AZ4">
+        <v>0.186</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0.465</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0.031</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0.031</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0.031</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0.062</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0.155</v>
+      </c>
+      <c r="CG4">
+        <v>3.223</v>
       </c>
     </row>
     <row r="5">
@@ -700,70 +1568,256 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.025</v>
+        <v>0.093</v>
       </c>
       <c r="C5">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="H5">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.031</v>
       </c>
       <c r="J5">
-        <v>0.598</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.05</v>
+        <v>0.031</v>
       </c>
       <c r="N5">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.174</v>
+        <v>0.062</v>
       </c>
       <c r="P5">
-        <v>0.324</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2.644</v>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.062</v>
+      </c>
+      <c r="Y5">
+        <v>0.062</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.186</v>
+      </c>
+      <c r="AC5">
+        <v>0.062</v>
+      </c>
+      <c r="AD5">
+        <v>0.031</v>
+      </c>
+      <c r="AE5">
+        <v>0.031</v>
+      </c>
+      <c r="AF5">
+        <v>0.062</v>
+      </c>
+      <c r="AG5">
+        <v>0.031</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0.062</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0.093</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0.062</v>
+      </c>
+      <c r="AS5">
+        <v>0.124</v>
+      </c>
+      <c r="AT5">
+        <v>0.062</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0.093</v>
+      </c>
+      <c r="AX5">
+        <v>0.031</v>
+      </c>
+      <c r="AY5">
+        <v>0.062</v>
+      </c>
+      <c r="AZ5">
+        <v>0.031</v>
+      </c>
+      <c r="BA5">
+        <v>0.031</v>
+      </c>
+      <c r="BB5">
+        <v>0.248</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0.062</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0.155</v>
+      </c>
+      <c r="BG5">
+        <v>0.031</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0.031</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0.031</v>
+      </c>
+      <c r="BQ5">
+        <v>0.031</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0.155</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0.093</v>
+      </c>
+      <c r="CA5">
+        <v>0.031</v>
+      </c>
+      <c r="CB5">
+        <v>0.093</v>
+      </c>
+      <c r="CC5">
+        <v>0.031</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>2.418</v>
       </c>
     </row>
     <row r="6">
@@ -773,70 +1827,256 @@
         </is>
       </c>
       <c r="B6">
-        <v>2.642</v>
+        <v>2.23</v>
       </c>
       <c r="C6">
-        <v>7.653000000000001</v>
+        <v>0.651</v>
       </c>
       <c r="D6">
-        <v>2.543</v>
+        <v>0.867</v>
       </c>
       <c r="E6">
-        <v>15.204</v>
+        <v>0.217</v>
       </c>
       <c r="F6">
-        <v>0.449</v>
+        <v>1.642</v>
       </c>
       <c r="G6">
-        <v>0.598</v>
+        <v>0.341</v>
       </c>
       <c r="H6">
-        <v>4.536000000000001</v>
+        <v>0.527</v>
       </c>
       <c r="I6">
-        <v>3.291</v>
+        <v>0.496</v>
       </c>
       <c r="J6">
-        <v>21.385</v>
+        <v>0.465</v>
       </c>
       <c r="K6">
-        <v>1.072</v>
+        <v>2.23</v>
       </c>
       <c r="L6">
-        <v>4.985</v>
+        <v>2.137</v>
       </c>
       <c r="M6">
-        <v>1.77</v>
+        <v>0.681</v>
       </c>
       <c r="N6">
-        <v>1.795</v>
+        <v>0.217</v>
       </c>
       <c r="O6">
-        <v>4.86</v>
+        <v>0.341</v>
       </c>
       <c r="P6">
-        <v>4.562</v>
+        <v>0.186</v>
       </c>
       <c r="Q6">
-        <v>0.5730000000000001</v>
+        <v>0.217</v>
       </c>
       <c r="R6">
-        <v>2.966</v>
+        <v>0.713</v>
       </c>
       <c r="S6">
-        <v>1.196</v>
+        <v>0.217</v>
       </c>
       <c r="T6">
-        <v>7.752</v>
+        <v>0.279</v>
       </c>
       <c r="U6">
-        <v>0.947</v>
+        <v>0.248</v>
       </c>
       <c r="V6">
-        <v>9.222</v>
+        <v>0.155</v>
       </c>
       <c r="W6">
-        <v>100.001</v>
+        <v>3.685</v>
+      </c>
+      <c r="X6">
+        <v>0.7430000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>1.146</v>
+      </c>
+      <c r="Z6">
+        <v>0.217</v>
+      </c>
+      <c r="AA6">
+        <v>0.279</v>
+      </c>
+      <c r="AB6">
+        <v>2.075</v>
+      </c>
+      <c r="AC6">
+        <v>0.65</v>
+      </c>
+      <c r="AD6">
+        <v>6.069999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.465</v>
+      </c>
+      <c r="AF6">
+        <v>0.403</v>
+      </c>
+      <c r="AG6">
+        <v>0.217</v>
+      </c>
+      <c r="AH6">
+        <v>0.124</v>
+      </c>
+      <c r="AI6">
+        <v>0.279</v>
+      </c>
+      <c r="AJ6">
+        <v>0.217</v>
+      </c>
+      <c r="AK6">
+        <v>0.496</v>
+      </c>
+      <c r="AL6">
+        <v>0.279</v>
+      </c>
+      <c r="AM6">
+        <v>0.155</v>
+      </c>
+      <c r="AN6">
+        <v>0.341</v>
+      </c>
+      <c r="AO6">
+        <v>0.527</v>
+      </c>
+      <c r="AP6">
+        <v>16.011</v>
+      </c>
+      <c r="AQ6">
+        <v>0.372</v>
+      </c>
+      <c r="AR6">
+        <v>0.31</v>
+      </c>
+      <c r="AS6">
+        <v>2.57</v>
+      </c>
+      <c r="AT6">
+        <v>0.279</v>
+      </c>
+      <c r="AU6">
+        <v>0.372</v>
+      </c>
+      <c r="AV6">
+        <v>0.434</v>
+      </c>
+      <c r="AW6">
+        <v>1.456</v>
+      </c>
+      <c r="AX6">
+        <v>1.58</v>
+      </c>
+      <c r="AY6">
+        <v>4.213</v>
+      </c>
+      <c r="AZ6">
+        <v>0.991</v>
+      </c>
+      <c r="BA6">
+        <v>0.496</v>
+      </c>
+      <c r="BB6">
+        <v>11.18</v>
+      </c>
+      <c r="BC6">
+        <v>0.217</v>
+      </c>
+      <c r="BD6">
+        <v>0.496</v>
+      </c>
+      <c r="BE6">
+        <v>0.341</v>
+      </c>
+      <c r="BF6">
+        <v>0.806</v>
+      </c>
+      <c r="BG6">
+        <v>0.651</v>
+      </c>
+      <c r="BH6">
+        <v>0.217</v>
+      </c>
+      <c r="BI6">
+        <v>0.341</v>
+      </c>
+      <c r="BJ6">
+        <v>0.8360000000000001</v>
+      </c>
+      <c r="BK6">
+        <v>0.186</v>
+      </c>
+      <c r="BL6">
+        <v>0.372</v>
+      </c>
+      <c r="BM6">
+        <v>0.186</v>
+      </c>
+      <c r="BN6">
+        <v>4.057</v>
+      </c>
+      <c r="BO6">
+        <v>0.898</v>
+      </c>
+      <c r="BP6">
+        <v>0.527</v>
+      </c>
+      <c r="BQ6">
+        <v>1.239</v>
+      </c>
+      <c r="BR6">
+        <v>0.155</v>
+      </c>
+      <c r="BS6">
+        <v>1.239</v>
+      </c>
+      <c r="BT6">
+        <v>0.681</v>
+      </c>
+      <c r="BU6">
+        <v>1.239</v>
+      </c>
+      <c r="BV6">
+        <v>0.403</v>
+      </c>
+      <c r="BW6">
+        <v>0.403</v>
+      </c>
+      <c r="BX6">
+        <v>0.186</v>
+      </c>
+      <c r="BY6">
+        <v>0.341</v>
+      </c>
+      <c r="BZ6">
+        <v>1.456</v>
+      </c>
+      <c r="CA6">
+        <v>1.765</v>
+      </c>
+      <c r="CB6">
+        <v>4.429</v>
+      </c>
+      <c r="CC6">
+        <v>0.96</v>
+      </c>
+      <c r="CD6">
+        <v>0.9289999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.589</v>
+      </c>
+      <c r="CF6">
+        <v>0.186</v>
+      </c>
+      <c r="CG6">
+        <v>100.02</v>
       </c>
     </row>
   </sheetData>
